--- a/data/output/Pedido_Semana_14_2026-02-03_utiles_jardin.xlsx
+++ b/data/output/Pedido_Semana_14_2026-02-03_utiles_jardin.xlsx
@@ -808,10 +808,10 @@
         <v>2</v>
       </c>
       <c r="L5" s="3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M5" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5" s="4" t="n">
         <v>15.96</v>
@@ -1188,10 +1188,10 @@
         <v>1</v>
       </c>
       <c r="L11" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M11" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N11" s="4" t="n">
         <v>1.75</v>
@@ -1386,10 +1386,10 @@
         <v>5</v>
       </c>
       <c r="L14" s="3" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="M14" s="3" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="N14" s="4" t="n">
         <v>29.4</v>
@@ -3498,10 +3498,10 @@
         <v>3</v>
       </c>
       <c r="L46" s="3" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="M46" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N46" s="4" t="n">
         <v>5.36</v>
@@ -3762,10 +3762,10 @@
         <v>4</v>
       </c>
       <c r="L50" s="3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M50" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N50" s="4" t="n">
         <v>16.8</v>
@@ -3960,10 +3960,10 @@
         <v>2</v>
       </c>
       <c r="L53" s="3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M53" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N53" s="4" t="n">
         <v>11.8</v>
@@ -4158,10 +4158,10 @@
         <v>1</v>
       </c>
       <c r="L56" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M56" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N56" s="4" t="n">
         <v>4.99</v>
@@ -5016,10 +5016,10 @@
         <v>2</v>
       </c>
       <c r="L69" s="3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M69" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N69" s="4" t="n">
         <v>9.960000000000001</v>
@@ -5707,7 +5707,7 @@
         </is>
       </c>
       <c r="C82" s="8" t="n">
-        <v>237</v>
+        <v>243</v>
       </c>
     </row>
     <row r="83">
@@ -5827,7 +5827,7 @@
         </is>
       </c>
       <c r="C93" s="8" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/data/output/Pedido_Semana_14_2026-02-03_utiles_jardin.xlsx
+++ b/data/output/Pedido_Semana_14_2026-02-03_utiles_jardin.xlsx
@@ -808,10 +808,10 @@
         <v>2</v>
       </c>
       <c r="L5" s="3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M5" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N5" s="4" t="n">
         <v>15.96</v>
@@ -1188,10 +1188,10 @@
         <v>1</v>
       </c>
       <c r="L11" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M11" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N11" s="4" t="n">
         <v>1.75</v>
@@ -1386,10 +1386,10 @@
         <v>5</v>
       </c>
       <c r="L14" s="3" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M14" s="3" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="N14" s="4" t="n">
         <v>29.4</v>
@@ -3498,10 +3498,10 @@
         <v>3</v>
       </c>
       <c r="L46" s="3" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="M46" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N46" s="4" t="n">
         <v>5.36</v>
@@ -3762,10 +3762,10 @@
         <v>4</v>
       </c>
       <c r="L50" s="3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M50" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N50" s="4" t="n">
         <v>16.8</v>
@@ -3960,10 +3960,10 @@
         <v>2</v>
       </c>
       <c r="L53" s="3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M53" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N53" s="4" t="n">
         <v>11.8</v>
@@ -4158,10 +4158,10 @@
         <v>1</v>
       </c>
       <c r="L56" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M56" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N56" s="4" t="n">
         <v>4.99</v>
@@ -5016,10 +5016,10 @@
         <v>2</v>
       </c>
       <c r="L69" s="3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M69" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N69" s="4" t="n">
         <v>9.960000000000001</v>
@@ -5707,7 +5707,7 @@
         </is>
       </c>
       <c r="C82" s="8" t="n">
-        <v>243</v>
+        <v>237</v>
       </c>
     </row>
     <row r="83">
@@ -5827,7 +5827,7 @@
         </is>
       </c>
       <c r="C93" s="8" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
